--- a/BackTest/2020-01-12 BackTest MTL.xlsx
+++ b/BackTest/2020-01-12 BackTest MTL.xlsx
@@ -3006,17 +3006,13 @@
         <v>242.4950000000002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>242</v>
-      </c>
-      <c r="K75" t="n">
-        <v>242</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3045,22 +3041,14 @@
         <v>242.5016666666669</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>242</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3094,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>242</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3129,151 +3111,131 @@
         <v>242.5066666666669</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>242</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4889.5174</v>
+      </c>
+      <c r="G79" t="n">
+        <v>242.4883333333336</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>293.6864</v>
+      </c>
+      <c r="G80" t="n">
+        <v>242.4583333333336</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>597.239</v>
+      </c>
+      <c r="G81" t="n">
+        <v>242.4300000000002</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="C79" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="D79" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="E79" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>4889.5174</v>
-      </c>
-      <c r="G79" t="n">
-        <v>242.4883333333336</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="K79" t="n">
-        <v>242</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="C80" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="E80" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>293.6864</v>
-      </c>
-      <c r="G80" t="n">
-        <v>242.4583333333336</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>242</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="C81" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="E81" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>597.239</v>
-      </c>
-      <c r="G81" t="n">
-        <v>242.4300000000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>241.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>242</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3310,7 +3272,7 @@
         <v>241.3</v>
       </c>
       <c r="K82" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3344,16 +3306,14 @@
         <v>242.3750000000003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>241.4</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3387,16 +3347,14 @@
         <v>242.3500000000003</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3430,16 +3388,14 @@
         <v>242.3250000000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>241.4</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3473,16 +3429,14 @@
         <v>242.3050000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>241.4</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3516,16 +3470,14 @@
         <v>242.2816666666669</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>241.4</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3559,16 +3511,14 @@
         <v>242.2633333333336</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>241.9</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3602,16 +3552,14 @@
         <v>242.2450000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>241</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3645,16 +3593,14 @@
         <v>242.2250000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>241</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3688,16 +3634,14 @@
         <v>242.2066666666669</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>241</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3731,16 +3675,14 @@
         <v>242.1766666666669</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>241</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3774,16 +3716,14 @@
         <v>242.1466666666669</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>241</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3817,16 +3757,14 @@
         <v>242.1166666666669</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>241</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3860,16 +3798,14 @@
         <v>242.1000000000003</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>241</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3903,16 +3839,14 @@
         <v>242.0666666666669</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>241</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3946,16 +3880,14 @@
         <v>242.0333333333336</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>241</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3989,16 +3921,14 @@
         <v>241.9983333333336</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>241</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4032,16 +3962,14 @@
         <v>241.9733333333336</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>241</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4075,16 +4003,14 @@
         <v>241.9500000000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>241.6</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4118,16 +4044,14 @@
         <v>241.9266666666669</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>241.6</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4161,16 +4085,14 @@
         <v>241.8866666666669</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>241.6</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4204,16 +4126,14 @@
         <v>241.8450000000003</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>241.6</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4247,16 +4167,14 @@
         <v>241.8033333333336</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
         <v>241.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>242</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4290,16 +4208,14 @@
         <v>241.7533333333336</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
         <v>241.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>242</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4333,16 +4249,14 @@
         <v>241.7783333333336</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>242.5</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4376,16 +4290,14 @@
         <v>241.7550000000003</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>245.6</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4426,7 +4338,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4463,19 +4375,19 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>242</v>
+        <v>241.5</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>1.001211180124224</v>
       </c>
     </row>
     <row r="110">
@@ -4507,14 +4419,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>242</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4548,14 +4454,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>242</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +4489,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>242</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4630,14 +4524,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>242</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4559,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>242</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4594,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>242</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4753,14 +4629,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>242</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>242</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>242</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4734,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>242</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4769,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>242</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4958,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>242</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4999,14 +4839,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>242</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5040,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>242</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>242</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>242</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4979,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>242</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +5014,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>242</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +5049,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>242</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5286,14 +5084,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>242</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5327,14 +5119,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>242</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5368,14 +5154,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>242</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5409,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>242</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>242</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>242</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>242</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5573,14 +5329,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>242</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5364,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>242</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +5399,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>242</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5696,14 +5434,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>242</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5731,22 +5463,14 @@
         <v>241.9550000000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>243</v>
-      </c>
-      <c r="K140" t="n">
-        <v>242</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>242</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>242</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>242</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5903,14 +5609,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>242</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5644,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>242</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5679,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>242</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5714,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>242</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6067,14 +5749,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>242</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6108,14 +5784,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>242</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6149,14 +5819,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>242</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +5854,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>242</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6231,14 +5889,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>242</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6272,14 +5924,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>242</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>242</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6354,14 +5994,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>242</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6395,14 +6029,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>242</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>242</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6477,14 +6099,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>242</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6518,14 +6134,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>242</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6559,14 +6169,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>242</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6600,14 +6204,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>242</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +6239,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>242</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>242</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6723,14 +6309,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>242</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>242</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6805,14 +6379,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>242</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6846,14 +6414,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>242</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6887,14 +6449,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>242</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6928,14 +6484,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>242</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6519,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>242</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6554,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>242</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6589,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>242</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7092,14 +6624,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>242</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +6659,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>242</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +6694,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>242</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7215,14 +6729,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>242</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6764,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>242</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6799,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>242</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7338,14 +6834,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>242</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +6869,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>242</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6904,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>242</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +6939,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>242</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7502,14 +6974,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>242</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7543,14 +7009,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>242</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7584,14 +7044,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>242</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>242</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7666,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>242</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7707,14 +7149,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>242</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +7184,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>242</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>242</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7830,14 +7254,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>242</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7868,17 +7286,11 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>242</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7912,14 +7324,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>242</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7953,14 +7359,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>242</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7994,14 +7394,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>242</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +7429,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>242</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8073,19 +7461,13 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>242</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>1.011942148760331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -8114,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -11894,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
@@ -12104,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest MTL.xlsx
+++ b/BackTest/2020-01-12 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-116529.97337333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-114690.48027333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-123801.76787333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-118768.16317333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-128516.93137333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-129586.97307333</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-132189.39627333</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-137592.53577333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-137460.53577333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-143980.32567333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-164006.47847333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-162925.65167333</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-164506.40367333</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-171355.47977333</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-168020.75377333</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-168220.75377333</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-168220.75377333</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-168220.75377333</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-175330.86907333</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-193773.30407333</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2860,10 +2860,14 @@
         <v>-244044.73347333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>241.5</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2896,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2936,19 @@
         <v>-242544.73347333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5089,17 @@
         <v>-232497.55372934</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>241.3</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5128,17 @@
         <v>-232368.55372934</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>241.2</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,15 +5167,17 @@
         <v>-229728.32672934</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>241.3</v>
       </c>
-      <c r="J144" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5177,12 +5209,10 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5213,17 +5243,13 @@
         <v>-232706.92602934</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="J146" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5254,14 +5280,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>241.2</v>
       </c>
-      <c r="J147" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,14 +5319,10 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>241</v>
-      </c>
-      <c r="J148" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,14 +5356,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>241</v>
       </c>
-      <c r="J149" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5377,14 +5395,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>241</v>
       </c>
-      <c r="J150" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,14 +5434,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>241</v>
       </c>
-      <c r="J151" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5459,14 +5473,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>241</v>
       </c>
-      <c r="J152" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,14 +5512,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>241</v>
       </c>
-      <c r="J153" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,14 +5551,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>241</v>
       </c>
-      <c r="J154" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,14 +5590,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>241</v>
       </c>
-      <c r="J155" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5623,14 +5629,12 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>241</v>
       </c>
-      <c r="J156" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,14 +5668,12 @@
         <v>-245182.0667293399</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>241</v>
       </c>
-      <c r="J157" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5705,14 +5707,12 @@
         <v>-241925.72742934</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>240.9</v>
       </c>
-      <c r="J158" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,14 +5746,12 @@
         <v>-241460.72742934</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>241.5</v>
       </c>
-      <c r="J159" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5787,14 +5785,12 @@
         <v>-241460.72742934</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>241.6</v>
       </c>
-      <c r="J160" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,14 +5824,12 @@
         <v>-241460.72742934</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>241.6</v>
       </c>
-      <c r="J161" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,14 +5863,12 @@
         <v>-243608.51012934</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>241.6</v>
       </c>
-      <c r="J162" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,14 +5902,12 @@
         <v>-243608.51012934</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>241.5</v>
       </c>
-      <c r="J163" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5951,14 +5941,12 @@
         <v>-243608.51012934</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>241.5</v>
       </c>
-      <c r="J164" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,14 +5980,12 @@
         <v>-209959.26592934</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>241.5</v>
       </c>
-      <c r="J165" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,9 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,9 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,9 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,9 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,9 +6170,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,9 +6244,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6309,9 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,14 +6315,12 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>244.9</v>
       </c>
-      <c r="J174" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,9 +6357,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,14 +6391,12 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>243</v>
       </c>
-      <c r="J176" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6469,9 +6433,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6508,9 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,9 +6507,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6586,9 +6544,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6625,9 +6581,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6661,14 +6615,10 @@
         <v>-227797.10782934</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>242</v>
-      </c>
-      <c r="J182" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,9 +6655,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,9 +6692,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6783,9 +6729,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,14 +6763,10 @@
         <v>-227797.10782934</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>242</v>
-      </c>
-      <c r="J186" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,14 +6800,10 @@
         <v>-240538.98612934</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>242</v>
-      </c>
-      <c r="J187" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6901,14 +6837,10 @@
         <v>-240538.98612934</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>241.7</v>
-      </c>
-      <c r="J188" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,9 +6877,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,9 +6914,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7023,9 +6951,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,9 +6988,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7101,9 +7025,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,9 +7062,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,9 +7099,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,12 +7133,12 @@
         <v>-238542.74852934</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>241.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>241.9</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,9 +7175,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,14 +7209,10 @@
         <v>-240542.74852934</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="J198" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,14 +7246,10 @@
         <v>-240542.74852934</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="J199" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,9 +7286,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,9 +7323,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,12 +7357,12 @@
         <v>-237059.74638416</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>241.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>243</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,9 +7399,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,9 +7436,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7573,9 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,9 +7510,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,9 +7547,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7690,9 +7584,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,9 +7621,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7768,9 +7658,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,9 +7695,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,9 +7732,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,9 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,9 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,9 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,9 +7880,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8041,9 +7917,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,9 +7954,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,9 +7991,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8158,9 +8028,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,9 +8065,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8236,9 +8102,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,9 +8139,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,9 +8176,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,9 +8213,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8392,9 +8250,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,9 +8287,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,9 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,9 +8361,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,9 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,9 +8472,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,9 +8509,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8546,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8743,9 +8583,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,9 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,9 +8657,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,9 +8694,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,9 +8731,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,9 +8768,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,9 +8805,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,9 +8842,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,9 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,9 +8916,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,9 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,9 +8990,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,9 +9027,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,9 +9064,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,9 +9101,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,9 +9138,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9367,9 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,9 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,9 +9249,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9484,9 +9286,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,9 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,9 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9601,9 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9640,9 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,9 +9508,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,9 +9545,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,9 +9582,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,9 +9619,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9874,9 +9656,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,9 +9693,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,9 +9730,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9991,9 +9767,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,9 +9804,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,9 +9841,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,9 +9878,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,9 +9915,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,9 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,9 +9989,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,9 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,9 +10063,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10342,9 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,9 +10137,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,9 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,9 +10211,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,9 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,9 +10285,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,9 +10322,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,9 +10359,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,9 +10396,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +10433,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,9 +10470,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +10507,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,9 +10544,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +10581,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,9 +10618,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +10655,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +10692,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +10729,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +10766,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,9 +10803,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +10840,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +10877,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +10914,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +10951,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,9 +10988,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,9 +11025,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,9 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +11099,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,9 +11136,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +11173,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +11210,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,9 +11247,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +11284,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,9 +11321,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +11358,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,9 +11395,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +11432,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,19 +11466,17 @@
         <v>-280537.66420248</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>241.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L313" t="n">
-        <v>1.009504765851637</v>
+        <v>1</v>
       </c>
       <c r="M313" t="inlineStr"/>
     </row>
@@ -11825,7 +11507,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11858,7 +11544,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11891,7 +11581,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11924,7 +11618,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11957,7 +11655,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11990,7 +11692,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12023,7 +11729,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12056,7 +11766,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12089,7 +11803,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12122,7 +11840,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12155,7 +11877,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12188,7 +11914,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12221,7 +11951,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12254,7 +11988,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12287,7 +12025,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12320,7 +12062,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12353,7 +12099,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12386,7 +12136,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12419,7 +12173,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12452,7 +12210,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12485,7 +12247,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12518,7 +12284,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12551,7 +12321,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12584,7 +12358,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12617,7 +12395,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12650,7 +12432,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12683,7 +12469,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12716,7 +12506,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12749,7 +12543,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12782,7 +12580,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12815,7 +12617,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12848,7 +12654,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12881,7 +12691,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12914,7 +12728,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12947,7 +12765,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12980,7 +12802,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13013,7 +12839,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13046,7 +12876,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13079,7 +12913,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13112,7 +12950,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13145,7 +12987,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13178,7 +13024,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13211,7 +13061,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13244,7 +13098,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13277,7 +13135,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13310,7 +13172,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13343,7 +13209,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13376,7 +13246,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13409,7 +13283,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13442,7 +13320,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13471,11 +13353,15 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13508,7 +13394,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13541,7 +13431,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13574,7 +13468,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13607,7 +13505,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13640,7 +13542,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13673,7 +13579,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13706,7 +13616,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13735,11 +13649,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13772,7 +13690,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13805,7 +13727,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13838,7 +13764,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13871,7 +13801,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13904,7 +13838,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13937,7 +13875,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13970,7 +13912,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14003,7 +13949,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14036,7 +13986,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14069,7 +14023,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14102,7 +14060,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14135,7 +14097,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14168,7 +14134,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14201,7 +14171,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14234,7 +14208,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14267,7 +14245,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14300,7 +14282,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14329,11 +14315,15 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14362,11 +14352,15 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14395,11 +14389,15 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14428,11 +14426,15 @@
         <v>-305125.3865024798</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14463,15 @@
         <v>-305122.3865024798</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14494,11 +14500,15 @@
         <v>-305257.3864024798</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14527,11 +14537,15 @@
         <v>-300511.6613024799</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14560,11 +14574,15 @@
         <v>-305511.6613024799</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14593,11 +14611,15 @@
         <v>-309571.6613024799</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14626,11 +14648,15 @@
         <v>-309561.6613024799</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14659,11 +14685,15 @@
         <v>-309565.0856024799</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14692,11 +14722,15 @@
         <v>-311413.2924024799</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14725,11 +14759,15 @@
         <v>-311383.0269024799</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +14796,15 @@
         <v>-315410.9114024799</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14791,11 +14833,15 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14824,11 +14870,15 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14857,11 +14907,15 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14890,11 +14944,15 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14927,7 +14985,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14960,7 +15022,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14993,7 +15059,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15026,7 +15096,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15055,11 +15129,15 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15092,7 +15170,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15125,7 +15207,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +15244,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15191,7 +15281,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15224,7 +15318,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15257,7 +15355,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15290,7 +15392,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15319,11 +15425,15 @@
         <v>-333211.1667024799</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +15462,15 @@
         <v>-335367.6754024799</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15389,7 +15503,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15422,7 +15540,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15455,7 +15577,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15488,7 +15614,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15521,7 +15651,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15554,7 +15688,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15587,7 +15725,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15620,7 +15762,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15653,7 +15799,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15686,7 +15836,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15719,7 +15873,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15752,7 +15910,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15781,11 +15943,15 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15814,11 +15980,15 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +16017,15 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15880,11 +16054,15 @@
         <v>-334006.8318024799</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15913,11 +16091,15 @@
         <v>-334008.9318024798</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15946,11 +16128,15 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15979,11 +16165,15 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16012,11 +16202,15 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16045,11 +16239,15 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16078,11 +16276,15 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16111,11 +16313,15 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16144,11 +16350,15 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16177,11 +16387,15 @@
         <v>-330418.1132024798</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16210,11 +16424,15 @@
         <v>-330600.1131024798</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16243,11 +16461,15 @@
         <v>-330600.1131024798</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16276,11 +16498,15 @@
         <v>-330458.5985024798</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16309,11 +16535,15 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16342,11 +16572,15 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16375,11 +16609,15 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16408,11 +16646,15 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16441,11 +16683,15 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16474,11 +16720,15 @@
         <v>-322112.7059024798</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16511,7 +16761,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16540,11 +16794,15 @@
         <v>-320149.8093024798</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16573,11 +16831,15 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16606,11 +16868,15 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16639,11 +16905,15 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16676,7 +16946,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16709,7 +16983,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16742,7 +17020,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16775,7 +17057,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16808,7 +17094,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16841,7 +17131,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16874,7 +17168,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16907,7 +17205,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16940,7 +17242,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16969,11 +17275,15 @@
         <v>-331954.2611024798</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17006,7 +17316,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17039,7 +17353,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17068,11 +17386,15 @@
         <v>-329497.2477875098</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17101,11 +17423,15 @@
         <v>-328851.4546875098</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17134,17 +17460,21 @@
         <v>-328980.4546875098</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
       <c r="M475" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest MTL.xlsx
+++ b/BackTest/2020-01-12 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-116529.97337333</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-114690.48027333</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-123801.76787333</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-118768.16317333</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-128516.93137333</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-129586.97307333</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2860,14 +2860,10 @@
         <v>-244044.73347333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>241.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2900,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2936,19 +2926,11 @@
         <v>-242544.73347333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3868,7 +3850,7 @@
         <v>-217671.31562934</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3883,7 @@
         <v>-220542.97862934</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +3916,7 @@
         <v>-223191.40562934</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5089,169 +5071,159 @@
         <v>-232497.55372934</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>241.3</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="C143" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>129</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-232368.55372934</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2640.227</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-229728.32672934</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>452</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-229728.32672934</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2978.5993</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-232706.92602934</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="C143" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="D143" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>129</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-232368.55372934</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>241.2</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="D144" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2640.227</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-229728.32672934</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>452</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-229728.32672934</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="C146" t="n">
-        <v>241.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>241.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2978.5993</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-232706.92602934</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5285,7 +5257,9 @@
       <c r="I147" t="n">
         <v>241.2</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,10 +5293,14 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>241</v>
+      </c>
+      <c r="J148" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,7 +5339,9 @@
       <c r="I149" t="n">
         <v>241</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,7 +5380,9 @@
       <c r="I150" t="n">
         <v>241</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,7 +5421,9 @@
       <c r="I151" t="n">
         <v>241</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,7 +5462,9 @@
       <c r="I152" t="n">
         <v>241</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,7 +5503,9 @@
       <c r="I153" t="n">
         <v>241</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,7 +5544,9 @@
       <c r="I154" t="n">
         <v>241</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,7 +5585,9 @@
       <c r="I155" t="n">
         <v>241</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,7 +5626,9 @@
       <c r="I156" t="n">
         <v>241</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,7 +5667,9 @@
       <c r="I157" t="n">
         <v>241</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,7 +5708,9 @@
       <c r="I158" t="n">
         <v>240.9</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,7 +5749,9 @@
       <c r="I159" t="n">
         <v>241.5</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5790,7 +5790,9 @@
       <c r="I160" t="n">
         <v>241.6</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,7 +5831,9 @@
       <c r="I161" t="n">
         <v>241.6</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5868,7 +5872,9 @@
       <c r="I162" t="n">
         <v>241.6</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,7 +5913,9 @@
       <c r="I163" t="n">
         <v>241.5</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5946,7 +5954,9 @@
       <c r="I164" t="n">
         <v>241.5</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,7 +5995,9 @@
       <c r="I165" t="n">
         <v>241.5</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,17 +6031,19 @@
         <v>-218240.31592934</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>241.3</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>0.9966576875259013</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6056,15 +6070,11 @@
         <v>-218204.74612934</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6107,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +6140,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6173,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +6206,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +6239,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6272,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6315,17 +6301,11 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>244.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6354,15 +6334,11 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6391,17 +6367,11 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6434,11 +6404,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6471,11 +6437,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6508,11 +6470,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6545,11 +6503,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6582,11 +6536,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +6569,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6656,11 +6602,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6635,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6730,11 +6668,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6767,11 +6701,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6804,11 +6734,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6841,11 +6767,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +6800,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6915,11 +6833,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6866,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6989,11 +6899,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7026,11 +6932,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7063,11 +6965,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +6998,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7133,17 +7027,11 @@
         <v>-238542.74852934</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>241.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +7064,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +7097,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +7130,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +7163,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7320,15 +7192,11 @@
         <v>-234291.69778416</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7357,17 +7225,11 @@
         <v>-237059.74638416</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>243</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7396,15 +7258,11 @@
         <v>-236441.08408416</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +7295,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7328,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +7361,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7548,11 +7394,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7427,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +7460,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7659,11 +7493,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +7526,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +7559,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7770,11 +7592,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7625,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7844,11 +7658,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7881,11 +7691,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7918,11 +7724,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7955,11 +7757,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7992,11 +7790,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8029,11 +7823,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +7856,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +7889,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +7922,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +7955,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +7988,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8021,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +8054,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8325,11 +8087,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8120,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8399,11 +8153,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +8186,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8219,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8252,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +8285,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8584,11 +8318,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +8351,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8658,11 +8384,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +8417,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8732,11 +8450,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8769,11 +8483,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8516,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8549,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8582,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +8615,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8950,15 +8644,11 @@
         <v>-269920.8043841601</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8987,15 +8677,11 @@
         <v>-269972.8043841601</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +8714,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +8747,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +8780,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9135,15 +8809,11 @@
         <v>-271203.83398416</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +8846,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9209,15 +8875,11 @@
         <v>-271662.48918416</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9246,15 +8908,11 @@
         <v>-271629.58838416</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +8945,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +8978,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9357,15 +9007,11 @@
         <v>-273990.46048416</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9394,15 +9040,11 @@
         <v>-277795.13668416</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9431,15 +9073,11 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9468,15 +9106,11 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9505,15 +9139,11 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9542,15 +9172,11 @@
         <v>-256729.72793661</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9579,15 +9205,11 @@
         <v>-256749.48673661</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +9242,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9275,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9690,15 +9304,11 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9727,15 +9337,11 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9764,15 +9370,11 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9801,15 +9403,11 @@
         <v>-273241.98303661</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9838,15 +9436,11 @@
         <v>-276302.20053661</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9875,15 +9469,11 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9912,15 +9502,11 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9953,11 +9539,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9990,11 +9572,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10027,11 +9605,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10064,11 +9638,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10101,11 +9671,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10138,11 +9704,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10175,11 +9737,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10212,11 +9770,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10249,11 +9803,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10286,11 +9836,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10323,11 +9869,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10360,11 +9902,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10397,11 +9935,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10430,15 +9964,11 @@
         <v>-286224.50670898</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10471,11 +10001,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10508,11 +10034,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10545,11 +10067,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10578,15 +10096,11 @@
         <v>-286178.50670898</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +10133,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10656,11 +10166,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10693,11 +10199,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10730,11 +10232,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10767,11 +10265,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +10298,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10841,11 +10331,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +10364,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10915,11 +10397,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10952,11 +10430,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10989,11 +10463,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11026,11 +10496,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11063,11 +10529,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11100,11 +10562,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11137,11 +10595,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11174,11 +10628,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11211,11 +10661,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11248,11 +10694,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11285,11 +10727,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11322,11 +10760,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11359,11 +10793,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11396,11 +10826,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11433,11 +10859,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11470,11 +10892,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11507,11 +10925,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11544,11 +10958,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11581,11 +10991,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11618,11 +11024,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +11057,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11688,15 +11086,11 @@
         <v>-281167.41720248</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11729,11 +11123,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11762,15 +11152,11 @@
         <v>-288967.0416024801</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11189,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11840,11 +11222,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11877,11 +11255,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11914,11 +11288,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11951,11 +11321,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11988,11 +11354,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +11387,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12062,11 +11420,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12099,11 +11453,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12136,11 +11486,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12173,11 +11519,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12210,11 +11552,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12247,11 +11585,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12284,11 +11618,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12321,11 +11651,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12358,11 +11684,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12395,11 +11717,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12432,11 +11750,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12469,11 +11783,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12506,11 +11816,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12543,11 +11849,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12580,11 +11882,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12613,15 +11911,11 @@
         <v>-303344.12260248</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12650,15 +11944,11 @@
         <v>-304317.57060248</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12691,11 +11981,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12728,11 +12014,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12765,11 +12047,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12802,11 +12080,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12839,11 +12113,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12876,11 +12146,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12913,11 +12179,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12950,11 +12212,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12987,11 +12245,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +12278,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13061,11 +12311,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13098,11 +12344,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13135,11 +12377,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13172,11 +12410,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13209,11 +12443,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13246,11 +12476,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13279,15 +12505,11 @@
         <v>-295619.5560024799</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13316,15 +12538,11 @@
         <v>-296087.5560024799</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13353,15 +12571,11 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13390,15 +12604,11 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13427,15 +12637,11 @@
         <v>-304531.4791024799</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13464,15 +12670,11 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13505,11 +12707,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13538,15 +12736,11 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13575,15 +12769,11 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13612,15 +12802,11 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13649,15 +12835,11 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13686,15 +12868,11 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13723,15 +12901,11 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13760,15 +12934,11 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13797,15 +12967,11 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13834,15 +13000,11 @@
         <v>-321500.1606024799</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13871,15 +13033,11 @@
         <v>-311248.1982024799</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13908,15 +13066,11 @@
         <v>-311246.1737024799</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13945,15 +13099,11 @@
         <v>-311671.2587024799</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13982,15 +13132,11 @@
         <v>-310119.5755024799</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14019,15 +13165,11 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14056,15 +13198,11 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14093,15 +13231,11 @@
         <v>-308688.5208024799</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14130,15 +13264,11 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14171,11 +13301,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14204,15 +13330,11 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14241,15 +13363,11 @@
         <v>-307709.6529024799</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14278,15 +13396,11 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14315,15 +13429,11 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14352,15 +13462,11 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14389,15 +13495,11 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14426,15 +13528,11 @@
         <v>-305125.3865024798</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14463,15 +13561,11 @@
         <v>-305122.3865024798</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14500,15 +13594,11 @@
         <v>-305257.3864024798</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14537,15 +13627,11 @@
         <v>-300511.6613024799</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14574,15 +13660,11 @@
         <v>-305511.6613024799</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14611,15 +13693,11 @@
         <v>-309571.6613024799</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14648,15 +13726,11 @@
         <v>-309561.6613024799</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14685,15 +13759,11 @@
         <v>-309565.0856024799</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14722,15 +13792,11 @@
         <v>-311413.2924024799</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14759,15 +13825,11 @@
         <v>-311383.0269024799</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14796,15 +13858,11 @@
         <v>-315410.9114024799</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14833,15 +13891,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14870,15 +13924,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14907,15 +13957,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14944,15 +13990,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14981,15 +14023,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15018,15 +14056,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15055,15 +14089,11 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15092,15 +14122,11 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15129,15 +14155,11 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15166,15 +14188,11 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15203,15 +14221,11 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15240,15 +14254,11 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15277,15 +14287,11 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15314,15 +14320,11 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15351,15 +14353,11 @@
         <v>-323933.0050024799</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15392,11 +14390,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15425,15 +14419,15 @@
         <v>-333211.1667024799</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="J420" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15462,13 +14456,17 @@
         <v>-335367.6754024799</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="J421" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L421" t="n">
@@ -15499,13 +14497,17 @@
         <v>-338058.7335024799</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="J422" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -15536,10 +14538,14 @@
         <v>-337548.6965024799</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="J423" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,10 +14579,14 @@
         <v>-338355.5858024799</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="J424" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15610,10 +14620,14 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="J425" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,10 +14661,14 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="J426" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15684,10 +14702,14 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="J427" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,10 +14743,14 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="J428" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,10 +14784,12 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,10 +14823,14 @@
         <v>-337560.4575024798</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>246.3</v>
+      </c>
+      <c r="J430" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,10 +14864,14 @@
         <v>-337555.9575024798</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="J431" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,10 +14905,14 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="J432" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,17 +14946,19 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>245.5</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L433" t="n">
-        <v>1</v>
+        <v>1.001109979633401</v>
       </c>
       <c r="M433" t="inlineStr"/>
     </row>
@@ -15943,15 +14985,15 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>247</v>
+      </c>
+      <c r="J434" t="n">
+        <v>247</v>
+      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15980,13 +15022,17 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>247</v>
+      </c>
+      <c r="J435" t="n">
+        <v>247</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L435" t="n">
@@ -16020,10 +15066,12 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>247</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
@@ -16058,11 +15106,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +15139,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +15172,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +15205,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16206,11 +15238,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16239,15 +15267,11 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16280,11 +15304,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16317,11 +15337,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +15370,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16391,11 +15403,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +15436,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +15469,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16498,15 +15498,11 @@
         <v>-330458.5985024798</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16535,15 +15531,11 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16572,15 +15564,11 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16613,11 +15601,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16646,15 +15630,11 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16683,15 +15663,11 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16720,15 +15696,11 @@
         <v>-322112.7059024798</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16757,15 +15729,11 @@
         <v>-319758.1860024798</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16794,15 +15762,11 @@
         <v>-320149.8093024798</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16831,15 +15795,11 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16868,15 +15828,11 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16905,15 +15861,11 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16942,15 +15894,11 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16979,15 +15927,11 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17016,15 +15960,11 @@
         <v>-318560.8744024798</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17053,15 +15993,11 @@
         <v>-316168.7016024798</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17090,15 +16026,11 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17127,15 +16059,11 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17164,15 +16092,11 @@
         <v>-321554.4389024798</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17201,15 +16125,11 @@
         <v>-330259.2611024798</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17238,15 +16158,11 @@
         <v>-330254.2611024798</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17275,15 +16191,11 @@
         <v>-331954.2611024798</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17312,15 +16224,11 @@
         <v>-327262.2787024798</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17349,15 +16257,11 @@
         <v>-327086.9787875098</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17386,15 +16290,11 @@
         <v>-329497.2477875098</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17423,15 +16323,11 @@
         <v>-328851.4546875098</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17460,21 +16356,17 @@
         <v>-328980.4546875098</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
       <c r="M475" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest MTL.xlsx
+++ b/BackTest/2020-01-12 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-116529.97337333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-116108.84877333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-114693.08557333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-114690.48027333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-121805.83847333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-123801.76787333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-126565.17787333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-118768.16317333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-128559.38827333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-129586.97307333</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-217671.31562934</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-220542.97862934</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-223191.40562934</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5137,14 +5137,10 @@
         <v>-229728.32672934</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="J144" t="n">
-        <v>241.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5177,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,19 +5236,11 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>241.2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5293,19 +5269,11 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>241</v>
-      </c>
-      <c r="J148" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5334,19 +5302,11 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>241</v>
-      </c>
-      <c r="J149" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5375,19 +5335,11 @@
         <v>-241074.63252934</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>241</v>
-      </c>
-      <c r="J150" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5422,13 +5374,9 @@
         <v>241</v>
       </c>
       <c r="J151" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5463,11 +5411,11 @@
         <v>241</v>
       </c>
       <c r="J152" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5504,11 +5452,11 @@
         <v>241</v>
       </c>
       <c r="J153" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5545,13 +5493,9 @@
         <v>241</v>
       </c>
       <c r="J154" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5586,11 +5530,11 @@
         <v>241</v>
       </c>
       <c r="J155" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5627,11 +5571,11 @@
         <v>241</v>
       </c>
       <c r="J156" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5668,7 +5612,7 @@
         <v>241</v>
       </c>
       <c r="J157" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5709,7 +5653,7 @@
         <v>240.9</v>
       </c>
       <c r="J158" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5750,7 +5694,7 @@
         <v>241.5</v>
       </c>
       <c r="J159" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5791,7 +5735,7 @@
         <v>241.6</v>
       </c>
       <c r="J160" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5832,7 +5776,7 @@
         <v>241.6</v>
       </c>
       <c r="J161" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5873,7 +5817,7 @@
         <v>241.6</v>
       </c>
       <c r="J162" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5914,7 +5858,7 @@
         <v>241.5</v>
       </c>
       <c r="J163" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5955,7 +5899,7 @@
         <v>241.5</v>
       </c>
       <c r="J164" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5996,7 +5940,7 @@
         <v>241.5</v>
       </c>
       <c r="J165" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6031,19 +5975,19 @@
         <v>-218240.31592934</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>241.3</v>
+        <v>241</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>0.9966576875259013</v>
+        <v>1</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6073,10 +6017,16 @@
         <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>241</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>1.003298755186722</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6301,7 +6251,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6334,7 +6284,7 @@
         <v>-219790.74612934</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7093,11 +7043,17 @@
         <v>-240542.74852934</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>241.8</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7130,7 +7086,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7163,7 +7123,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +7156,15 @@
         <v>-234291.69778416</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +7193,15 @@
         <v>-237059.74638416</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7258,11 +7230,15 @@
         <v>-236441.08408416</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7295,7 +7271,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7328,7 +7308,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7361,7 +7345,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7382,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7427,7 +7419,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7460,7 +7456,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7493,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7526,7 +7530,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7559,7 +7567,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7592,7 +7604,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7625,7 +7641,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7658,7 +7678,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7691,7 +7715,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7724,7 +7752,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7757,7 +7789,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7790,7 +7826,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7823,7 +7863,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7856,7 +7900,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7889,7 +7937,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7922,7 +7974,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7955,7 +8011,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7988,7 +8048,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8021,7 +8085,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8122,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8087,7 +8159,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8120,7 +8196,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8153,7 +8233,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8186,7 +8270,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8219,7 +8307,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +8344,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +8381,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8318,7 +8418,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8347,11 +8451,17 @@
         <v>-270248.39608416</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>241.7</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8384,7 +8494,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +8531,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8450,7 +8568,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8483,7 +8605,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8516,7 +8642,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +8679,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8582,7 +8716,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8615,7 +8753,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8644,11 +8786,15 @@
         <v>-269920.8043841601</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +8823,15 @@
         <v>-269972.8043841601</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8714,7 +8864,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8747,7 +8901,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8780,7 +8938,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8809,11 +8971,15 @@
         <v>-271203.83398416</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8846,7 +9012,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8875,11 +9045,15 @@
         <v>-271662.48918416</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +9082,15 @@
         <v>-271629.58838416</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8945,7 +9123,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +9160,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9007,11 +9193,15 @@
         <v>-273990.46048416</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +9230,15 @@
         <v>-277795.13668416</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9073,11 +9267,15 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +9304,15 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +9341,15 @@
         <v>-257544.06018416</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +9378,15 @@
         <v>-256729.72793661</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9415,15 @@
         <v>-256749.48673661</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9242,7 +9456,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9275,7 +9493,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +9526,15 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9563,15 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9600,15 @@
         <v>-256298.46483661</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +9637,15 @@
         <v>-273241.98303661</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +9674,15 @@
         <v>-276302.20053661</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9469,11 +9711,15 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9502,11 +9748,15 @@
         <v>-275702.20053661</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9539,7 +9789,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +9826,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9605,7 +9863,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9638,7 +9900,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9671,7 +9937,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +9974,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9737,7 +10011,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9770,7 +10048,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10085,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9836,7 +10122,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9869,7 +10159,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9902,7 +10196,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9935,7 +10233,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9964,11 +10266,15 @@
         <v>-286224.50670898</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10001,7 +10307,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10034,7 +10344,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10067,7 +10381,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10096,11 +10414,15 @@
         <v>-286178.50670898</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10133,7 +10455,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10166,7 +10492,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +10529,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10232,7 +10566,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10265,7 +10603,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10298,7 +10640,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10331,7 +10677,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +10714,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10397,7 +10751,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10430,7 +10788,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10463,7 +10825,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10496,7 +10862,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10529,7 +10899,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +10936,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10595,7 +10973,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10628,7 +11010,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10661,7 +11047,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10694,7 +11084,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +11121,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10760,7 +11158,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10793,7 +11195,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10826,7 +11232,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11269,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10892,7 +11306,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10925,7 +11343,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11380,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10991,7 +11417,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +11454,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11057,7 +11491,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +11524,15 @@
         <v>-281167.41720248</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11123,7 +11565,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11152,11 +11598,15 @@
         <v>-288967.0416024801</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +11639,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11222,7 +11676,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11713,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +11750,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +11787,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +11824,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +11861,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +11898,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11453,7 +11935,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11486,7 +11972,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12009,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11552,7 +12046,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11585,7 +12083,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11618,7 +12120,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +12157,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11684,7 +12194,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +12231,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +12268,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11783,7 +12305,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11816,7 +12342,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11849,7 +12379,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +12416,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11911,11 +12449,15 @@
         <v>-303344.12260248</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11944,11 +12486,15 @@
         <v>-304317.57060248</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11981,7 +12527,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +12564,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +12601,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12080,7 +12638,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12675,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12146,7 +12712,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12179,7 +12749,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12212,7 +12786,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12245,7 +12823,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12278,7 +12860,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12311,7 +12897,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12344,7 +12934,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12377,7 +12971,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +13008,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12443,7 +13045,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12476,7 +13082,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12505,11 +13115,15 @@
         <v>-295619.5560024799</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12538,11 +13152,15 @@
         <v>-296087.5560024799</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12571,11 +13189,15 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12604,11 +13226,15 @@
         <v>-297288.5559024799</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12637,11 +13263,15 @@
         <v>-304531.4791024799</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12670,11 +13300,15 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12707,7 +13341,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12736,11 +13374,15 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12769,11 +13411,15 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12802,11 +13448,15 @@
         <v>-304520.7359024799</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12835,11 +13485,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12868,11 +13522,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12901,11 +13559,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +13596,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12967,11 +13633,15 @@
         <v>-307772.3359024799</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13000,11 +13670,15 @@
         <v>-321500.1606024799</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13033,11 +13707,15 @@
         <v>-311248.1982024799</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13066,11 +13744,15 @@
         <v>-311246.1737024799</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13099,11 +13781,15 @@
         <v>-311671.2587024799</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13132,11 +13818,15 @@
         <v>-310119.5755024799</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13165,11 +13855,15 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13198,11 +13892,15 @@
         <v>-308188.5208024799</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13231,11 +13929,15 @@
         <v>-308688.5208024799</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13264,11 +13966,15 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13301,7 +14007,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13330,11 +14040,15 @@
         <v>-307721.5033024799</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13363,11 +14077,15 @@
         <v>-307709.6529024799</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13396,11 +14114,15 @@
         <v>-303733.4834024798</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13433,10 +14155,12 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
@@ -13495,7 +14219,7 @@
         <v>-304925.3865024798</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13528,7 +14252,7 @@
         <v>-305125.3865024798</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13561,7 +14285,7 @@
         <v>-305122.3865024798</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13594,7 +14318,7 @@
         <v>-305257.3864024798</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13627,7 +14351,7 @@
         <v>-300511.6613024799</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13660,7 +14384,7 @@
         <v>-305511.6613024799</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13693,7 +14417,7 @@
         <v>-309571.6613024799</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13726,7 +14450,7 @@
         <v>-309561.6613024799</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13759,7 +14483,7 @@
         <v>-309565.0856024799</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13792,7 +14516,7 @@
         <v>-311413.2924024799</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13825,7 +14549,7 @@
         <v>-311383.0269024799</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13858,7 +14582,7 @@
         <v>-315410.9114024799</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13924,7 +14648,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13957,7 +14681,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13990,7 +14714,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14023,7 +14747,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14056,7 +14780,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14089,7 +14813,7 @@
         <v>-315607.9114024799</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14122,7 +14846,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14155,7 +14879,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14188,7 +14912,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14221,7 +14945,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14254,7 +14978,7 @@
         <v>-316024.5737024799</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14287,7 +15011,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14320,7 +15044,7 @@
         <v>-317431.6103024799</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14353,7 +15077,7 @@
         <v>-323933.0050024799</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14419,14 +15143,10 @@
         <v>-333211.1667024799</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="J420" t="n">
-        <v>245.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
@@ -14456,19 +15176,11 @@
         <v>-335367.6754024799</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>247.1</v>
-      </c>
-      <c r="J421" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14497,19 +15209,11 @@
         <v>-338058.7335024799</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="J422" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14538,19 +15242,11 @@
         <v>-337548.6965024799</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J423" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14579,19 +15275,11 @@
         <v>-338355.5858024799</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="J424" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14620,19 +15308,11 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J425" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14661,19 +15341,11 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>246.3</v>
-      </c>
-      <c r="J426" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14702,19 +15374,11 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>246.3</v>
-      </c>
-      <c r="J427" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14743,19 +15407,11 @@
         <v>-337558.3575024799</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>246.3</v>
-      </c>
-      <c r="J428" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14787,14 +15443,8 @@
         <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14823,19 +15473,11 @@
         <v>-337560.4575024798</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>246.3</v>
-      </c>
-      <c r="J430" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14864,19 +15506,11 @@
         <v>-337555.9575024798</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="J431" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14905,19 +15539,11 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>246.5</v>
-      </c>
-      <c r="J432" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14949,16 +15575,10 @@
         <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
-        <v>1.001109979633401</v>
+        <v>1</v>
       </c>
       <c r="M433" t="inlineStr"/>
     </row>
@@ -14985,14 +15605,10 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>247</v>
-      </c>
-      <c r="J434" t="n">
-        <v>247</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
@@ -15022,19 +15638,11 @@
         <v>-334127.8858024799</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>247</v>
-      </c>
-      <c r="J435" t="n">
-        <v>247</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15066,14 +15674,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>247</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +15704,7 @@
         <v>-334006.8318024799</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15267,7 +15869,7 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15300,7 +15902,7 @@
         <v>-333468.6210024799</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15333,7 +15935,7 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15366,7 +15968,7 @@
         <v>-333063.4024024798</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15432,7 +16034,7 @@
         <v>-330600.1131024798</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15498,7 +16100,7 @@
         <v>-330458.5985024798</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15531,7 +16133,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15564,7 +16166,7 @@
         <v>-329828.4832024798</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15795,7 +16397,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15828,7 +16430,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15861,7 +16463,7 @@
         <v>-322795.0985024798</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15894,7 +16496,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15927,7 +16529,7 @@
         <v>-326915.8744024798</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15960,7 +16562,7 @@
         <v>-318560.8744024798</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15993,7 +16595,7 @@
         <v>-316168.7016024798</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16026,7 +16628,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16059,7 +16661,7 @@
         <v>-314553.3097024798</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16092,7 +16694,7 @@
         <v>-321554.4389024798</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16125,7 +16727,7 @@
         <v>-330259.2611024798</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16158,7 +16760,7 @@
         <v>-330254.2611024798</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16191,7 +16793,7 @@
         <v>-331954.2611024798</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16224,7 +16826,7 @@
         <v>-327262.2787024798</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16257,7 +16859,7 @@
         <v>-327086.9787875098</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16290,7 +16892,7 @@
         <v>-329497.2477875098</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16323,7 +16925,7 @@
         <v>-328851.4546875098</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16356,7 +16958,7 @@
         <v>-328980.4546875098</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
